--- a/2017-AC/serialization.xlsx
+++ b/2017-AC/serialization.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13110"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13110" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="cpp-serializers" sheetId="1" r:id="rId1"/>
+    <sheet name="osu-daint" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="26">
   <si>
     <t>=</t>
   </si>
@@ -73,6 +73,27 @@
   </si>
   <si>
     <t>Time (ms)</t>
+  </si>
+  <si>
+    <t>ser</t>
+  </si>
+  <si>
+    <t>MB/s</t>
+  </si>
+  <si>
+    <t>rma</t>
+  </si>
+  <si>
+    <t>rma vector</t>
+  </si>
+  <si>
+    <t>serialize buffer</t>
+  </si>
+  <si>
+    <t>Msg Size</t>
+  </si>
+  <si>
+    <t>2 threads</t>
   </si>
 </sst>
 </file>
@@ -164,7 +185,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'cpp-serializers'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -176,7 +197,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>'cpp-serializers'!$A$2:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -223,7 +244,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$14</c:f>
+              <c:f>'cpp-serializers'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -279,11 +300,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151599104"/>
-        <c:axId val="198601536"/>
+        <c:axId val="661872128"/>
+        <c:axId val="216547904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151599104"/>
+        <c:axId val="661872128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -292,7 +313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198601536"/>
+        <c:crossAx val="216547904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -300,7 +321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198601536"/>
+        <c:axId val="216547904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -321,7 +342,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151599104"/>
+        <c:crossAx val="661872128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -378,7 +399,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>'cpp-serializers'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -390,7 +411,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>'cpp-serializers'!$A$2:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -437,7 +458,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$14</c:f>
+              <c:f>'cpp-serializers'!$H$2:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -493,11 +514,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="132746752"/>
-        <c:axId val="198599808"/>
+        <c:axId val="662266368"/>
+        <c:axId val="216549632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132746752"/>
+        <c:axId val="662266368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,7 +527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198599808"/>
+        <c:crossAx val="216549632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -514,7 +535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198599808"/>
+        <c:axId val="216549632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,7 +556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132746752"/>
+        <c:crossAx val="662266368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -544,6 +565,510 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'osu-daint'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>serialize buffer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'osu-daint'!$A$3:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'osu-daint'!$E$3:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>3.4179687499999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1884765625000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.65419921875E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3328124999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6730468749999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.321552734375E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.654716796875E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.321220703125E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10555634765624999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20723544921875001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38705947265625001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73152646484374995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49890498046874998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0598195312500001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0446295898437499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8644322265625002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7420729492187501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.236664453125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.40108134765625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.44327451171875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.47737197265625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.247168847656249</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.20408125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'osu-daint'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rma vector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'osu-daint'!$A$3:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'osu-daint'!$J$3:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>3.3164062500000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2939453125000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6734375E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3310546875E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5965820312500001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.33123046875E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6712109375000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3670312499999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10551357421875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21078359375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3891400390625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72369853515625004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63301484374999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4063630859375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7902811523437498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6079516601562496</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.08476279296875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.253412109375001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.4234845703125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.39495302734375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.2620578125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.5864115234375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.24517890625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="205936832"/>
+        <c:axId val="205936256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="205936832"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Message size (bytes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="205936256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="205936256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bandwidth GB/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="205936832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21320097364067114"/>
+          <c:y val="7.7353054841745608E-2"/>
+          <c:w val="0.4171583425717994"/>
+          <c:h val="0.2194205592234203"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -609,6 +1134,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -906,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -1273,13 +1833,887 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="11" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>2.8570000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.35</v>
+      </c>
+      <c r="E3">
+        <f>D3/1024</f>
+        <v>3.4179687499999998E-4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>2.9449999999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="J3">
+        <f>I3/1024</f>
+        <v>3.3164062500000001E-4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>2.3853</v>
+      </c>
+      <c r="D4">
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E25" si="0">D4/1024</f>
+        <v>8.1884765625000002E-4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>2.3548</v>
+      </c>
+      <c r="I4">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J25" si="1">I4/1024</f>
+        <v>8.2939453125000005E-4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>2.3614999999999999</v>
+      </c>
+      <c r="D5">
+        <v>1.6939</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.65419921875E-3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>2.3342999999999998</v>
+      </c>
+      <c r="I5">
+        <v>1.7136</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>1.6734375E-3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>2.3441000000000001</v>
+      </c>
+      <c r="D6">
+        <v>3.4127999999999998</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3.3328124999999998E-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>2.3454000000000002</v>
+      </c>
+      <c r="I6">
+        <v>3.411</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>3.3310546875E-3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>2.3414999999999999</v>
+      </c>
+      <c r="D7">
+        <v>6.8331999999999997</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>6.6730468749999997E-3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>2.3687</v>
+      </c>
+      <c r="I7">
+        <v>6.7549000000000001</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>6.5965820312500001E-3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>2.3645999999999998</v>
+      </c>
+      <c r="D8">
+        <v>13.5327</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.321552734375E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>2.3473999999999999</v>
+      </c>
+      <c r="I8">
+        <v>13.6318</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>1.33123046875E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>2.3542999999999998</v>
+      </c>
+      <c r="D9">
+        <v>27.1843</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2.654716796875E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>2.3397999999999999</v>
+      </c>
+      <c r="I9">
+        <v>27.353200000000001</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>2.6712109375000001E-2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>2.3491</v>
+      </c>
+      <c r="D10">
+        <v>54.4893</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.321220703125E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>2.3290000000000002</v>
+      </c>
+      <c r="I10">
+        <v>54.958399999999997</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>5.3670312499999998E-2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>256</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>2.3683999999999998</v>
+      </c>
+      <c r="D11">
+        <v>108.08969999999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.10555634765624999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>2.3694000000000002</v>
+      </c>
+      <c r="I11">
+        <v>108.0459</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.10551357421875</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>512</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>2.4127000000000001</v>
+      </c>
+      <c r="D12">
+        <v>212.20910000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.20723544921875001</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <v>2.3721000000000001</v>
+      </c>
+      <c r="I12">
+        <v>215.8424</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.21078359375</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1024</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>2.5836000000000001</v>
+      </c>
+      <c r="D13">
+        <v>396.34890000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.38705947265625001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13">
+        <v>2.5697999999999999</v>
+      </c>
+      <c r="I13">
+        <v>398.4794</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.3891400390625</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2048</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>2.734</v>
+      </c>
+      <c r="D14">
+        <v>749.08309999999994</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.73152646484374995</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14">
+        <v>2.7635999999999998</v>
+      </c>
+      <c r="I14">
+        <v>741.06730000000005</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.72369853515625004</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4096</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>8.0175999999999998</v>
+      </c>
+      <c r="D15">
+        <v>510.87869999999998</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.49890498046874998</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15">
+        <v>6.319</v>
+      </c>
+      <c r="I15">
+        <v>648.20719999999994</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.63301484374999994</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>7.5484999999999998</v>
+      </c>
+      <c r="D16">
+        <v>1085.2552000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.0598195312500001</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>5.6883999999999997</v>
+      </c>
+      <c r="I16">
+        <v>1440.1158</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>1.4063630859375</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16384</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>7.8254000000000001</v>
+      </c>
+      <c r="D17">
+        <v>2093.7006999999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2.0446295898437499</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17">
+        <v>5.7342000000000004</v>
+      </c>
+      <c r="I17">
+        <v>2857.2478999999998</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>2.7902811523437498</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>32768</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>8.2805999999999997</v>
+      </c>
+      <c r="D18">
+        <v>3957.1786000000002</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>3.8644322265625002</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18">
+        <v>5.7061999999999999</v>
+      </c>
+      <c r="I18">
+        <v>5742.5424999999996</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>5.6079516601562496</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>65536</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>9.4925999999999995</v>
+      </c>
+      <c r="D19">
+        <v>6903.8827000000001</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>6.7420729492187501</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19">
+        <v>5.7736999999999998</v>
+      </c>
+      <c r="I19">
+        <v>11350.7971</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>11.08476279296875</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>131072</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>12.504099999999999</v>
+      </c>
+      <c r="D20">
+        <v>10482.3444</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>10.236664453125</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20">
+        <v>8.9802999999999997</v>
+      </c>
+      <c r="I20">
+        <v>14595.494000000001</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>14.253412109375001</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>262144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>19.102900000000002</v>
+      </c>
+      <c r="D21">
+        <v>13722.7073</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>13.40108134765625</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>17.748799999999999</v>
+      </c>
+      <c r="I21">
+        <v>14769.6482</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>14.4234845703125</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>524288</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>38.085999999999999</v>
+      </c>
+      <c r="D22">
+        <v>13765.9131</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>13.44327451171875</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <v>35.567999999999998</v>
+      </c>
+      <c r="I22">
+        <v>14740.4319</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>14.39495302734375</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1048576</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>75.979200000000006</v>
+      </c>
+      <c r="D23">
+        <v>13800.8289</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>13.47737197265625</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>71.798900000000003</v>
+      </c>
+      <c r="I23">
+        <v>14604.3472</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>14.2620578125</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2097152</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>199.86009999999999</v>
+      </c>
+      <c r="D24">
+        <v>10493.100899999999</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>10.247168847656249</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24">
+        <v>150.7388</v>
+      </c>
+      <c r="I24">
+        <v>13912.4854</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>13.5864115234375</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4194304</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>401.40800000000002</v>
+      </c>
+      <c r="D25">
+        <v>10448.9792</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>10.20408125</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <v>309.24459999999999</v>
+      </c>
+      <c r="I25">
+        <v>13563.063200000001</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>13.24517890625</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2017-AC/serialization.xlsx
+++ b/2017-AC/serialization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="27">
   <si>
     <t>=</t>
   </si>
@@ -95,6 +95,9 @@
   <si>
     <t>2 threads</t>
   </si>
+  <si>
+    <t>12 threads</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +163,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -300,11 +302,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="661872128"/>
-        <c:axId val="216547904"/>
+        <c:axId val="220255744"/>
+        <c:axId val="220086848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="661872128"/>
+        <c:axId val="220255744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,7 +315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216547904"/>
+        <c:crossAx val="220086848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -321,7 +323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216547904"/>
+        <c:axId val="220086848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -342,7 +344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661872128"/>
+        <c:crossAx val="220255744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -374,7 +376,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -514,11 +515,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="662266368"/>
-        <c:axId val="216549632"/>
+        <c:axId val="663437312"/>
+        <c:axId val="220088576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="662266368"/>
+        <c:axId val="663437312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,7 +528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216549632"/>
+        <c:crossAx val="220088576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -535,7 +536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216549632"/>
+        <c:axId val="220088576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,7 +557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662266368"/>
+        <c:crossAx val="663437312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -587,7 +588,31 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2 Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -598,7 +623,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'osu-daint'!$D$2</c:f>
+              <c:f>'osu-daint'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -613,85 +638,85 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'osu-daint'!$A$3:$A$25</c:f>
+              <c:f>'osu-daint'!$B$3:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>9.765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.90625E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="17">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="18">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="19">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="20">
                   <c:v>1024</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
                   <c:v>2048</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>524288</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2097152</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4194304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'osu-daint'!$E$3:$E$25</c:f>
+              <c:f>'osu-daint'!$F$3:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -774,7 +799,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'osu-daint'!$I$2</c:f>
+              <c:f>'osu-daint'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -789,85 +814,85 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'osu-daint'!$A$3:$A$25</c:f>
+              <c:f>'osu-daint'!$B$3:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>9.765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.90625E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="17">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="18">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="19">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="20">
                   <c:v>1024</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
                   <c:v>2048</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>524288</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2097152</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4194304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'osu-daint'!$J$3:$J$25</c:f>
+              <c:f>'osu-daint'!$K$3:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -953,14 +978,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205936832"/>
-        <c:axId val="205936256"/>
+        <c:axId val="220092608"/>
+        <c:axId val="220093184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205936832"/>
+        <c:axId val="220092608"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
+          <c:min val="0.125"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -976,7 +1002,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Message size (bytes)</a:t>
+                  <a:t>Message size (KB)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -988,12 +1014,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205936256"/>
+        <c:crossAx val="220093184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205936256"/>
+        <c:axId val="220093184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,8 +1049,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205936832"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="220092608"/>
+        <c:crossesAt val="0.125"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -1034,10 +1060,539 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21320097364067114"/>
-          <c:y val="7.7353054841745608E-2"/>
-          <c:w val="0.4171583425717994"/>
-          <c:h val="0.2194205592234203"/>
+          <c:x val="0.21840333333333337"/>
+          <c:y val="0.19224366549442393"/>
+          <c:w val="0.36652539951493407"/>
+          <c:h val="0.18159271120123657"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>12 Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'osu-daint'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>serialize buffer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'osu-daint'!$B$3:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>9.765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.90625E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'osu-daint'!$Q$3:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>3.6259765625000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3818359375000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.47705078125E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.984765625E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9272460937499997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1843554687500001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3883105468749999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7026464843749997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3300097656249997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18498408203125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34160732421875001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63762480468750005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59186201171874997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.32422666015625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6439701171875001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2865441406249998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.121848437500001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.09389423828125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.82326630859375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.887968359375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.39895537109375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.14972421875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.115838574218751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'osu-daint'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rma vector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'osu-daint'!$B$3:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>9.765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.90625E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'osu-daint'!$V$3:$V$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>3.6503906250000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.521484375E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5112304687500001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.02626953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0463867187499996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.200751953125E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4086816406249999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.757626953125E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3986230468750001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18475341796875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35007343749999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64133798828124999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60912353515624995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3661958984375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7505119140624998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5985851562500004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.79193466796875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.3164896484375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.435042871093749</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.360008984375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.8821494140625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.600591113281251</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.459340234375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="211681280"/>
+        <c:axId val="211688192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="211681280"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="0.125"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Message size (KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="211688192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="211688192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bandwidth GB/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="211681280"/>
+        <c:crossesAt val="0.125"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21840333333333337"/>
+          <c:y val="0.19224366549442393"/>
+          <c:w val="0.36652539951493407"/>
+          <c:h val="0.18159271120123657"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1146,16 +1701,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>169863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>404475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1169,6 +1724,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373062</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215562</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>188912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1833,881 +2420,1781 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="10.7109375" customWidth="1"/>
+    <col min="1" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
+        <f>A3/1024</f>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
         <v>2.8570000000000002</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.35</v>
       </c>
-      <c r="E3">
-        <f>D3/1024</f>
+      <c r="F3">
+        <f>E3/1024</f>
         <v>3.4179687499999998E-4</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
         <v>2.9449999999999998</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.33960000000000001</v>
       </c>
-      <c r="J3">
-        <f>I3/1024</f>
+      <c r="K3">
+        <f>J3/1024</f>
         <v>3.3164062500000001E-4</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="P3">
+        <v>0.37130000000000002</v>
+      </c>
+      <c r="Q3">
+        <f>P3/1024</f>
+        <v>3.6259765625000002E-4</v>
+      </c>
+      <c r="R3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3">
+        <v>2.6753</v>
+      </c>
+      <c r="U3">
+        <v>0.37380000000000002</v>
+      </c>
+      <c r="V3">
+        <f>U3/1024</f>
+        <v>3.6503906250000002E-4</v>
+      </c>
+      <c r="W3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
+        <f t="shared" ref="B4:B25" si="0">A4/1024</f>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
         <v>2.3853</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.83850000000000002</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E25" si="0">D4/1024</f>
+      <c r="F4">
+        <f t="shared" ref="F4:F25" si="1">E4/1024</f>
         <v>8.1884765625000002E-4</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4">
         <v>2.3548</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.84930000000000005</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J25" si="1">I4/1024</f>
+      <c r="K4">
+        <f t="shared" ref="K4:K25" si="2">J4/1024</f>
         <v>8.2939453125000005E-4</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>2.6457000000000002</v>
+      </c>
+      <c r="P4">
+        <v>0.75590000000000002</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q25" si="3">P4/1024</f>
+        <v>7.3818359375000002E-4</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4">
+        <v>2.5969000000000002</v>
+      </c>
+      <c r="U4">
+        <v>0.7702</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V25" si="4">U4/1024</f>
+        <v>7.521484375E-4</v>
+      </c>
+      <c r="W4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
         <v>2.3614999999999999</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.6939</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+      <c r="F5">
+        <f t="shared" si="1"/>
         <v>1.65419921875E-3</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5">
         <v>2.3342999999999998</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.7136</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
+      <c r="K5">
+        <f t="shared" si="2"/>
         <v>1.6734375E-3</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>2.6446000000000001</v>
+      </c>
+      <c r="P5">
+        <v>1.5125</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>1.47705078125E-3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5">
+        <v>2.5848</v>
+      </c>
+      <c r="U5">
+        <v>1.5475000000000001</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="4"/>
+        <v>1.5112304687500001E-3</v>
+      </c>
+      <c r="W5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
         <v>2.3441000000000001</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3.4127999999999998</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
+      <c r="F6">
+        <f t="shared" si="1"/>
         <v>3.3328124999999998E-3</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
         <v>2.3454000000000002</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3.411</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
+      <c r="K6">
+        <f t="shared" si="2"/>
         <v>3.3310546875E-3</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>2.6175000000000002</v>
+      </c>
+      <c r="P6">
+        <v>3.0564</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>2.984765625E-3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6">
+        <v>2.5815999999999999</v>
+      </c>
+      <c r="U6">
+        <v>3.0989</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
+        <v>3.02626953125E-3</v>
+      </c>
+      <c r="W6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
         <v>2.3414999999999999</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6.8331999999999997</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
+      <c r="F7">
+        <f t="shared" si="1"/>
         <v>6.6730468749999997E-3</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
       <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7">
         <v>2.3687</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6.7549000000000001</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
+      <c r="K7">
+        <f t="shared" si="2"/>
         <v>6.5965820312500001E-3</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <v>2.6360999999999999</v>
+      </c>
+      <c r="P7">
+        <v>6.0694999999999997</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>5.9272460937499997E-3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7">
+        <v>2.5842000000000001</v>
+      </c>
+      <c r="U7">
+        <v>6.1914999999999996</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="4"/>
+        <v>6.0463867187499996E-3</v>
+      </c>
+      <c r="W7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
         <v>2.3645999999999998</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>13.5327</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
+      <c r="F8">
+        <f t="shared" si="1"/>
         <v>1.321552734375E-2</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
       <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
         <v>2.3473999999999999</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>13.6318</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
+      <c r="K8">
+        <f t="shared" si="2"/>
         <v>1.33123046875E-2</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>2.6385999999999998</v>
+      </c>
+      <c r="P8">
+        <v>12.127800000000001</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>1.1843554687500001E-2</v>
+      </c>
+      <c r="R8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8">
+        <v>2.6025</v>
+      </c>
+      <c r="U8">
+        <v>12.2957</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="4"/>
+        <v>1.200751953125E-2</v>
+      </c>
+      <c r="W8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>64</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
         <v>2.3542999999999998</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>27.1843</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
+      <c r="F9">
+        <f t="shared" si="1"/>
         <v>2.654716796875E-2</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
       <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9">
         <v>2.3397999999999999</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>27.353200000000001</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
+      <c r="K9">
+        <f t="shared" si="2"/>
         <v>2.6712109375000001E-2</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>64</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <v>2.6168999999999998</v>
+      </c>
+      <c r="P9">
+        <v>24.456299999999999</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>2.3883105468749999E-2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9">
+        <v>2.5948000000000002</v>
+      </c>
+      <c r="U9">
+        <v>24.664899999999999</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="4"/>
+        <v>2.4086816406249999E-2</v>
+      </c>
+      <c r="W9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>128</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
         <v>2.3491</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>54.4893</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
+      <c r="F10">
+        <f t="shared" si="1"/>
         <v>5.321220703125E-2</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
       <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10">
         <v>2.3290000000000002</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>54.958399999999997</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
+      <c r="K10">
+        <f t="shared" si="2"/>
         <v>5.3670312499999998E-2</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <v>128</v>
+      </c>
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>2.6581000000000001</v>
+      </c>
+      <c r="P10">
+        <v>48.155099999999997</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>4.7026464843749997E-2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10">
+        <v>2.6274000000000002</v>
+      </c>
+      <c r="U10">
+        <v>48.7181</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="4"/>
+        <v>4.757626953125E-2</v>
+      </c>
+      <c r="W10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>256</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
         <v>2.3683999999999998</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>108.08969999999999</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
+      <c r="F11">
+        <f t="shared" si="1"/>
         <v>0.10555634765624999</v>
       </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
       <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11">
         <v>2.3694000000000002</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>108.0459</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
+      <c r="K11">
+        <f t="shared" si="2"/>
         <v>0.10551357421875</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>256</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <v>2.6795</v>
+      </c>
+      <c r="P11">
+        <v>95.539299999999997</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>9.3300097656249997E-2</v>
+      </c>
+      <c r="R11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11">
+        <v>2.66</v>
+      </c>
+      <c r="U11">
+        <v>96.241900000000001</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="4"/>
+        <v>9.3986230468750001E-2</v>
+      </c>
+      <c r="W11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>512</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
         <v>2.4127000000000001</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>212.20910000000001</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
+      <c r="F12">
+        <f t="shared" si="1"/>
         <v>0.20723544921875001</v>
       </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
       <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12">
         <v>2.3721000000000001</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>215.8424</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
+      <c r="K12">
+        <f t="shared" si="2"/>
         <v>0.21078359375</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>512</v>
+      </c>
+      <c r="N12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>2.7029000000000001</v>
+      </c>
+      <c r="P12">
+        <v>189.4237</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>0.18498408203125</v>
+      </c>
+      <c r="R12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12">
+        <v>2.7063000000000001</v>
+      </c>
+      <c r="U12">
+        <v>189.1875</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="4"/>
+        <v>0.18475341796875</v>
+      </c>
+      <c r="W12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1024</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
         <v>2.5836000000000001</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>396.34890000000001</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
+      <c r="F13">
+        <f t="shared" si="1"/>
         <v>0.38705947265625001</v>
       </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
       <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13">
         <v>2.5697999999999999</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>398.4794</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
+      <c r="K13">
+        <f t="shared" si="2"/>
         <v>0.3891400390625</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <v>1024</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>2.9272999999999998</v>
+      </c>
+      <c r="P13">
+        <v>349.80590000000001</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>0.34160732421875001</v>
+      </c>
+      <c r="R13" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13">
+        <v>2.8565</v>
+      </c>
+      <c r="U13">
+        <v>358.47519999999997</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="4"/>
+        <v>0.35007343749999997</v>
+      </c>
+      <c r="W13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2048</v>
       </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
         <v>2.734</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>749.08309999999994</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
+      <c r="F14">
+        <f t="shared" si="1"/>
         <v>0.73152646484374995</v>
       </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
       <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14">
         <v>2.7635999999999998</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>741.06730000000005</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
+      <c r="K14">
+        <f t="shared" si="2"/>
         <v>0.72369853515625004</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>2048</v>
+      </c>
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>3.1366000000000001</v>
+      </c>
+      <c r="P14">
+        <v>652.92780000000005</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>0.63762480468750005</v>
+      </c>
+      <c r="R14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14">
+        <v>3.1185</v>
+      </c>
+      <c r="U14">
+        <v>656.73009999999999</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="4"/>
+        <v>0.64133798828124999</v>
+      </c>
+      <c r="W14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4096</v>
       </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
         <v>8.0175999999999998</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>510.87869999999998</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
+      <c r="F15">
+        <f t="shared" si="1"/>
         <v>0.49890498046874998</v>
       </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
       <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15">
         <v>6.319</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>648.20719999999994</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
+      <c r="K15">
+        <f t="shared" si="2"/>
         <v>0.63301484374999994</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <v>4096</v>
+      </c>
+      <c r="N15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15">
+        <v>6.7583000000000002</v>
+      </c>
+      <c r="P15">
+        <v>606.06669999999997</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>0.59186201171874997</v>
+      </c>
+      <c r="R15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15">
+        <v>6.5667999999999997</v>
+      </c>
+      <c r="U15">
+        <v>623.74249999999995</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="4"/>
+        <v>0.60912353515624995</v>
+      </c>
+      <c r="W15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8192</v>
       </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
         <v>7.5484999999999998</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1085.2552000000001</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
+      <c r="F16">
+        <f t="shared" si="1"/>
         <v>1.0598195312500001</v>
       </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
       <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16">
         <v>5.6883999999999997</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1440.1158</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
+      <c r="K16">
+        <f t="shared" si="2"/>
         <v>1.4063630859375</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>8192</v>
+      </c>
+      <c r="N16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16">
+        <v>6.0412999999999997</v>
+      </c>
+      <c r="P16">
+        <v>1356.0081</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>1.32422666015625</v>
+      </c>
+      <c r="R16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16">
+        <v>5.8556999999999997</v>
+      </c>
+      <c r="U16">
+        <v>1398.9846</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="4"/>
+        <v>1.3661958984375</v>
+      </c>
+      <c r="W16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16384</v>
       </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
         <v>7.8254000000000001</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>2093.7006999999999</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
+      <c r="F17">
+        <f t="shared" si="1"/>
         <v>2.0446295898437499</v>
       </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
       <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17">
         <v>5.7342000000000004</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2857.2478999999998</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
+      <c r="K17">
+        <f t="shared" si="2"/>
         <v>2.7902811523437498</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>16384</v>
+      </c>
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17">
+        <v>6.0514999999999999</v>
+      </c>
+      <c r="P17">
+        <v>2707.4254000000001</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>2.6439701171875001</v>
+      </c>
+      <c r="R17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17">
+        <v>5.8170999999999999</v>
+      </c>
+      <c r="U17">
+        <v>2816.5241999999998</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="4"/>
+        <v>2.7505119140624998</v>
+      </c>
+      <c r="W17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>32768</v>
       </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
         <v>8.2805999999999997</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>3957.1786000000002</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
+      <c r="F18">
+        <f t="shared" si="1"/>
         <v>3.8644322265625002</v>
       </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
       <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18">
         <v>5.7061999999999999</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>5742.5424999999996</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
+      <c r="K18">
+        <f t="shared" si="2"/>
         <v>5.6079516601562496</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>32768</v>
+      </c>
+      <c r="N18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18">
+        <v>6.0530999999999997</v>
+      </c>
+      <c r="P18">
+        <v>5413.4211999999998</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>5.2865441406249998</v>
+      </c>
+      <c r="R18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18">
+        <v>5.7157</v>
+      </c>
+      <c r="U18">
+        <v>5732.9512000000004</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="4"/>
+        <v>5.5985851562500004</v>
+      </c>
+      <c r="W18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>65536</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
         <v>9.4925999999999995</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>6903.8827000000001</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
+      <c r="F19">
+        <f t="shared" si="1"/>
         <v>6.7420729492187501</v>
       </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
       <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19">
         <v>5.7736999999999998</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>11350.7971</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
+      <c r="K19">
+        <f t="shared" si="2"/>
         <v>11.08476279296875</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <v>65536</v>
+      </c>
+      <c r="N19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19">
+        <v>6.3230000000000004</v>
+      </c>
+      <c r="P19">
+        <v>10364.772800000001</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>10.121848437500001</v>
+      </c>
+      <c r="R19" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19">
+        <v>5.9303999999999997</v>
+      </c>
+      <c r="U19">
+        <v>11050.9411</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="4"/>
+        <v>10.79193466796875</v>
+      </c>
+      <c r="W19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>131072</v>
       </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
         <v>12.504099999999999</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>10482.3444</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
+      <c r="F20">
+        <f t="shared" si="1"/>
         <v>10.236664453125</v>
       </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
       <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20">
         <v>8.9802999999999997</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>14595.494000000001</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="1"/>
+      <c r="K20">
+        <f t="shared" si="2"/>
         <v>14.253412109375001</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20">
+        <v>131072</v>
+      </c>
+      <c r="N20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20">
+        <v>9.7754999999999992</v>
+      </c>
+      <c r="P20">
+        <v>13408.1477</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="3"/>
+        <v>13.09389423828125</v>
+      </c>
+      <c r="R20" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" t="s">
+        <v>21</v>
+      </c>
+      <c r="T20">
+        <v>8.9406999999999996</v>
+      </c>
+      <c r="U20">
+        <v>14660.0854</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="4"/>
+        <v>14.3164896484375</v>
+      </c>
+      <c r="W20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>262144</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
         <v>19.102900000000002</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>13722.7073</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
+      <c r="F21">
+        <f t="shared" si="1"/>
         <v>13.40108134765625</v>
       </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
       <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21">
         <v>17.748799999999999</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>14769.6482</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
+      <c r="K21">
+        <f t="shared" si="2"/>
         <v>14.4234845703125</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>262144</v>
+      </c>
+      <c r="N21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21">
+        <v>18.519500000000001</v>
+      </c>
+      <c r="P21">
+        <v>14155.0247</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="3"/>
+        <v>13.82326630859375</v>
+      </c>
+      <c r="R21" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21">
+        <v>17.7346</v>
+      </c>
+      <c r="U21">
+        <v>14781.483899999999</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="4"/>
+        <v>14.435042871093749</v>
+      </c>
+      <c r="W21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>524288</v>
       </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
         <v>38.085999999999999</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>13765.9131</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
+      <c r="F22">
+        <f t="shared" si="1"/>
         <v>13.44327451171875</v>
       </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
       <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22">
         <v>35.567999999999998</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>14740.4319</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
+      <c r="K22">
+        <f t="shared" si="2"/>
         <v>14.39495302734375</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>524288</v>
+      </c>
+      <c r="N22" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22">
+        <v>36.866399999999999</v>
+      </c>
+      <c r="P22">
+        <v>14221.2796</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="3"/>
+        <v>13.887968359375</v>
+      </c>
+      <c r="R22" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22">
+        <v>35.654600000000002</v>
+      </c>
+      <c r="U22">
+        <v>14704.6492</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="4"/>
+        <v>14.360008984375</v>
+      </c>
+      <c r="W22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1048576</v>
       </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
         <v>75.979200000000006</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>13800.8289</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
+      <c r="F23">
+        <f t="shared" si="1"/>
         <v>13.47737197265625</v>
       </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
       <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23">
         <v>71.798900000000003</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>14604.3472</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="1"/>
+      <c r="K23">
+        <f t="shared" si="2"/>
         <v>14.2620578125</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <v>1048576</v>
+      </c>
+      <c r="N23" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23">
+        <v>76.423900000000003</v>
+      </c>
+      <c r="P23">
+        <v>13720.5303</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="3"/>
+        <v>13.39895537109375</v>
+      </c>
+      <c r="R23" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <v>73.763800000000003</v>
+      </c>
+      <c r="U23">
+        <v>14215.321</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="4"/>
+        <v>13.8821494140625</v>
+      </c>
+      <c r="W23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2097152</v>
       </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
         <v>199.86009999999999</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>10493.100899999999</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
+      <c r="F24">
+        <f t="shared" si="1"/>
         <v>10.247168847656249</v>
       </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
       <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24">
         <v>150.7388</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>13912.4854</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
+      <c r="K24">
+        <f t="shared" si="2"/>
         <v>13.5864115234375</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <v>2097152</v>
+      </c>
+      <c r="N24" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24">
+        <v>155.74469999999999</v>
+      </c>
+      <c r="P24">
+        <v>13465.3176</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="3"/>
+        <v>13.14972421875</v>
+      </c>
+      <c r="R24" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24">
+        <v>150.58170000000001</v>
+      </c>
+      <c r="U24">
+        <v>13927.005300000001</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="4"/>
+        <v>13.600591113281251</v>
+      </c>
+      <c r="W24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4194304</v>
       </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
         <v>401.40800000000002</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>10448.9792</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
+      <c r="F25">
+        <f t="shared" si="1"/>
         <v>10.20408125</v>
       </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
       <c r="G25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25">
         <v>309.24459999999999</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>13563.063200000001</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
+      <c r="K25">
+        <f t="shared" si="2"/>
         <v>13.24517890625</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>4194304</v>
+      </c>
+      <c r="N25" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25">
+        <v>312.29419999999999</v>
+      </c>
+      <c r="P25">
+        <v>13430.618700000001</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="3"/>
+        <v>13.115838574218751</v>
+      </c>
+      <c r="R25" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25">
+        <v>304.32400000000001</v>
+      </c>
+      <c r="U25">
+        <v>13782.3644</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="4"/>
+        <v>13.459340234375</v>
+      </c>
+      <c r="W25" t="s">
         <v>20</v>
       </c>
     </row>

--- a/2017-AC/serialization.xlsx
+++ b/2017-AC/serialization.xlsx
@@ -604,7 +604,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38866333333333336"/>
+          <c:y val="6.7653291971898136E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="1"/>
       <c:spPr>
         <a:solidFill>
@@ -970,6 +977,174 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Cray MPI</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'osu-daint'!$B$3:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>9.765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.90625E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'osu-daint'!$C$28:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2.197265625E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.35546875E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7695312500000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7841796875E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4833984375000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0273437499999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14155273437499999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28033203125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53988281250000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0254980468749999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6068164062500001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.06298828125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6962207031249998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2435937499999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.4848730468750002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.978125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.953896484375001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0832421875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.604912109375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.105224609375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.185839843749999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.19423828125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.237734375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -986,7 +1161,7 @@
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:min val="0.125"/>
+          <c:min val="3.1250000000000007E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1010,7 +1185,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#\ ??/??" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1050,7 +1225,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="220092608"/>
-        <c:crossesAt val="0.125"/>
+        <c:crossesAt val="1.0000000000000005E-8"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -1060,9 +1235,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21840333333333337"/>
-          <c:y val="0.19224366549442393"/>
-          <c:w val="0.36652539951493407"/>
+          <c:x val="0.61731374643874648"/>
+          <c:y val="0.58688786866382969"/>
+          <c:w val="0.3486153846153846"/>
           <c:h val="0.18159271120123657"/>
         </c:manualLayout>
       </c:layout>
@@ -1133,7 +1308,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3773744444444444"/>
+          <c:y val="6.2015517640906626E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="1"/>
       <c:spPr>
         <a:solidFill>
@@ -1499,6 +1681,174 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Cray MPI</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'osu-daint'!$B$3:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>9.765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.90625E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'osu-daint'!$C$28:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2.197265625E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.35546875E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7695312500000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7841796875E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4833984375000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0273437499999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14155273437499999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28033203125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53988281250000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0254980468749999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6068164062500001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.06298828125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6962207031249998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2435937499999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.4848730468750002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.978125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.953896484375001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0832421875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.604912109375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.105224609375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.185839843749999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.19423828125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.237734375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1515,7 +1865,7 @@
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:min val="0.125"/>
+          <c:min val="3.1250000000000007E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1539,7 +1889,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#\ ??/??" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1579,7 +1929,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="211681280"/>
-        <c:crossesAt val="0.125"/>
+        <c:crossesAt val="1.0000000000000004E-6"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -1589,10 +1939,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21840333333333337"/>
-          <c:y val="0.19224366549442393"/>
-          <c:w val="0.36652539951493407"/>
-          <c:h val="0.18159271120123657"/>
+          <c:x val="0.60754451566951573"/>
+          <c:y val="0.57477051282051284"/>
+          <c:w val="0.34195655270655273"/>
+          <c:h val="0.18979487179487178"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1701,16 +2051,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>625475</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>169863</xdr:rowOff>
+      <xdr:rowOff>26988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>404475</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>575975</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>80988</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1738,9 +2088,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>215562</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>188912</xdr:rowOff>
+      <xdr:colOff>323562</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2420,10 +2770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:V25"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4196,6 +4546,282 @@
       </c>
       <c r="W25" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2.25</v>
+      </c>
+      <c r="C28">
+        <f>B28/1024</f>
+        <v>2.197265625E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>4.46</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C50" si="5">B29/1024</f>
+        <v>4.35546875E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>8.98</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="5"/>
+        <v>8.7695312500000004E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>18.27</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="5"/>
+        <v>1.7841796875E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>35.67</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="5"/>
+        <v>3.4833984375000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>71.959999999999994</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="5"/>
+        <v>7.0273437499999994E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>144.94999999999999</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="5"/>
+        <v>0.14155273437499999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>128</v>
+      </c>
+      <c r="B35">
+        <v>287.06</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="5"/>
+        <v>0.28033203125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>256</v>
+      </c>
+      <c r="B36">
+        <v>552.84</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
+        <v>0.53988281250000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>512</v>
+      </c>
+      <c r="B37">
+        <v>1050.1099999999999</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>1.0254980468749999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1024</v>
+      </c>
+      <c r="B38">
+        <v>1645.38</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>1.6068164062500001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2048</v>
+      </c>
+      <c r="B39">
+        <v>2112.5</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>2.06298828125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4096</v>
+      </c>
+      <c r="B40">
+        <v>2760.93</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>2.6962207031249998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8192</v>
+      </c>
+      <c r="B41">
+        <v>6393.44</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>6.2435937499999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>16384</v>
+      </c>
+      <c r="B42">
+        <v>6640.51</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>6.4848730468750002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>32768</v>
+      </c>
+      <c r="B43">
+        <v>13289.6</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>12.978125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>65536</v>
+      </c>
+      <c r="B44">
+        <v>14288.79</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>13.953896484375001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>131072</v>
+      </c>
+      <c r="B45">
+        <v>14421.24</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>14.0832421875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>262144</v>
+      </c>
+      <c r="B46">
+        <v>14955.43</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>14.604912109375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>524288</v>
+      </c>
+      <c r="B47">
+        <v>15467.75</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>15.105224609375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1048576</v>
+      </c>
+      <c r="B48">
+        <v>15550.3</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>15.185839843749999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2097152</v>
+      </c>
+      <c r="B49">
+        <v>14534.9</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>14.19423828125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4194304</v>
+      </c>
+      <c r="B50">
+        <v>14579.44</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="5"/>
+        <v>14.237734375</v>
       </c>
     </row>
   </sheetData>

--- a/2017-AC/serialization.xlsx
+++ b/2017-AC/serialization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="29">
   <si>
     <t>=</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>12 threads</t>
+  </si>
+  <si>
+    <t>Cray OSU</t>
+  </si>
+  <si>
+    <t>MPI-pp</t>
   </si>
 </sst>
 </file>
@@ -302,11 +308,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="220255744"/>
-        <c:axId val="220086848"/>
+        <c:axId val="206259712"/>
+        <c:axId val="674775616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220255744"/>
+        <c:axId val="206259712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -315,7 +321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220086848"/>
+        <c:crossAx val="674775616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -323,7 +329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220086848"/>
+        <c:axId val="674775616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -344,7 +350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220255744"/>
+        <c:crossAx val="206259712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -515,11 +521,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="663437312"/>
-        <c:axId val="220088576"/>
+        <c:axId val="668893184"/>
+        <c:axId val="674777344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="663437312"/>
+        <c:axId val="668893184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,7 +534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220088576"/>
+        <c:crossAx val="674777344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -536,7 +542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220088576"/>
+        <c:axId val="674777344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,7 +563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663437312"/>
+        <c:crossAx val="668893184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1153,11 +1159,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220092608"/>
-        <c:axId val="220093184"/>
+        <c:axId val="674782528"/>
+        <c:axId val="669532160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220092608"/>
+        <c:axId val="674782528"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1189,12 +1195,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220093184"/>
+        <c:crossAx val="669532160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220093184"/>
+        <c:axId val="669532160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,7 +1230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220092608"/>
+        <c:crossAx val="674782528"/>
         <c:crossesAt val="1.0000000000000005E-8"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1235,10 +1241,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.61731374643874648"/>
-          <c:y val="0.58688786866382969"/>
-          <c:w val="0.3486153846153846"/>
-          <c:h val="0.18159271120123657"/>
+          <c:x val="0.1912316017316017"/>
+          <c:y val="0.26667435897435893"/>
+          <c:w val="0.3486154401154401"/>
+          <c:h val="0.19244743589743593"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1685,8 +1691,17 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Cray MPI</c:v>
+            <c:v>HPX-MPI</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
             <c:size val="4"/>
@@ -1771,78 +1786,78 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'osu-daint'!$C$28:$C$50</c:f>
+              <c:f>'osu-daint'!$I$28:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>2.197265625E-3</c:v>
+                  <c:v>1.6523437499999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.35546875E-3</c:v>
+                  <c:v>3.322265625E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.7695312500000004E-3</c:v>
+                  <c:v>6.5917968750000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7841796875E-2</c:v>
+                  <c:v>1.33076171875E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4833984375000002E-2</c:v>
+                  <c:v>2.6627929687500001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0273437499999994E-2</c:v>
+                  <c:v>5.3028320312500004E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14155273437499999</c:v>
+                  <c:v>1.063935546875E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28033203125</c:v>
+                  <c:v>2.105546875E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53988281250000003</c:v>
+                  <c:v>4.2296679687499998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0254980468749999</c:v>
+                  <c:v>0.12175410156249999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6068164062500001</c:v>
+                  <c:v>0.22892998046874999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.06298828125</c:v>
+                  <c:v>0.48913759765624998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6962207031249998</c:v>
+                  <c:v>0.78481494140624997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2435937499999996</c:v>
+                  <c:v>0.70851474609374998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.4848730468750002</c:v>
+                  <c:v>0.50184765625000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.978125</c:v>
+                  <c:v>0.69655869140625004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.953896484375001</c:v>
+                  <c:v>0.61570849609375</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.0832421875</c:v>
+                  <c:v>1.32783125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.604912109375</c:v>
+                  <c:v>1.7469488281250001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.105224609375</c:v>
+                  <c:v>3.5682158203125001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.185839843749999</c:v>
+                  <c:v>6.11068701171875</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.19423828125</c:v>
+                  <c:v>14.5204982421875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.237734375</c:v>
+                  <c:v>14.01324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1857,11 +1872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211681280"/>
-        <c:axId val="211688192"/>
+        <c:axId val="669536768"/>
+        <c:axId val="669537344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211681280"/>
+        <c:axId val="669536768"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1893,12 +1908,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211688192"/>
+        <c:crossAx val="669537344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211688192"/>
+        <c:axId val="669537344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,7 +1943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211681280"/>
+        <c:crossAx val="669536768"/>
         <c:crossesAt val="1.0000000000000004E-6"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1939,10 +1954,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.60754451566951573"/>
-          <c:y val="0.57477051282051284"/>
-          <c:w val="0.34195655270655273"/>
-          <c:h val="0.18979487179487178"/>
+          <c:x val="0.19103643578643584"/>
+          <c:y val="0.25998418803418805"/>
+          <c:w val="0.36980952380952375"/>
+          <c:h val="0.19708760683760687"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2058,7 +2073,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>575975</xdr:colOff>
+      <xdr:colOff>539975</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>80988</xdr:rowOff>
     </xdr:to>
@@ -2081,16 +2096,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>373062</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277812</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>323562</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>192312</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>85750</xdr:rowOff>
+      <xdr:rowOff>125437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2773,7 +2788,7 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,6 +4563,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
@@ -4559,6 +4582,37 @@
         <f>B28/1024</f>
         <v>2.197265625E-3</v>
       </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <v>5.9089999999999998</v>
+      </c>
+      <c r="H28">
+        <v>0.16919999999999999</v>
+      </c>
+      <c r="I28">
+        <f>H28/1024</f>
+        <v>1.6523437499999999E-4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -4571,6 +4625,37 @@
         <f t="shared" ref="C29:C50" si="5">B29/1024</f>
         <v>4.35546875E-3</v>
       </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29">
+        <v>5.8787000000000003</v>
+      </c>
+      <c r="H29">
+        <v>0.3402</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:I50" si="6">H29/1024</f>
+        <v>3.322265625E-4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -4583,6 +4668,37 @@
         <f t="shared" si="5"/>
         <v>8.7695312500000004E-3</v>
       </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>5.9255000000000004</v>
+      </c>
+      <c r="H30">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="6"/>
+        <v>6.5917968750000004E-4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -4595,6 +4711,37 @@
         <f t="shared" si="5"/>
         <v>1.7841796875E-2</v>
       </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31">
+        <v>5.8704999999999998</v>
+      </c>
+      <c r="H31">
+        <v>1.3627</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="6"/>
+        <v>1.33076171875E-3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -4607,8 +4754,39 @@
         <f t="shared" si="5"/>
         <v>3.4833984375000002E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32">
+        <v>5.8678999999999997</v>
+      </c>
+      <c r="H32">
+        <v>2.7267000000000001</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="6"/>
+        <v>2.6627929687500001E-3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4619,8 +4797,39 @@
         <f t="shared" si="5"/>
         <v>7.0273437499999994E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33">
+        <v>5.8930999999999996</v>
+      </c>
+      <c r="H33">
+        <v>5.4301000000000004</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="6"/>
+        <v>5.3028320312500004E-3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>64</v>
       </c>
@@ -4631,8 +4840,39 @@
         <f t="shared" si="5"/>
         <v>0.14155273437499999</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34">
+        <v>5.8743999999999996</v>
+      </c>
+      <c r="H34">
+        <v>10.8947</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="6"/>
+        <v>1.063935546875E-2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>128</v>
       </c>
@@ -4643,8 +4883,39 @@
         <f t="shared" si="5"/>
         <v>0.28033203125</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>128</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35">
+        <v>5.9367000000000001</v>
+      </c>
+      <c r="H35">
+        <v>21.5608</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="6"/>
+        <v>2.105546875E-2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>256</v>
       </c>
@@ -4655,8 +4926,39 @@
         <f t="shared" si="5"/>
         <v>0.53988281250000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>256</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <v>5.9105999999999996</v>
+      </c>
+      <c r="H36">
+        <v>43.311799999999998</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="6"/>
+        <v>4.2296679687499998E-2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>512</v>
       </c>
@@ -4667,8 +4969,39 @@
         <f t="shared" si="5"/>
         <v>1.0254980468749999</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>512</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37">
+        <v>4.1066000000000003</v>
+      </c>
+      <c r="H37">
+        <v>124.67619999999999</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="6"/>
+        <v>0.12175410156249999</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1024</v>
       </c>
@@ -4679,8 +5012,39 @@
         <f t="shared" si="5"/>
         <v>1.6068164062500001</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>1024</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38">
+        <v>4.3681000000000001</v>
+      </c>
+      <c r="H38">
+        <v>234.42429999999999</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="6"/>
+        <v>0.22892998046874999</v>
+      </c>
+      <c r="J38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2048</v>
       </c>
@@ -4691,8 +5055,39 @@
         <f t="shared" si="5"/>
         <v>2.06298828125</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>2048</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39">
+        <v>4.0888</v>
+      </c>
+      <c r="H39">
+        <v>500.87689999999998</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="6"/>
+        <v>0.48913759765624998</v>
+      </c>
+      <c r="J39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4096</v>
       </c>
@@ -4703,8 +5098,39 @@
         <f t="shared" si="5"/>
         <v>2.6962207031249998</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>4096</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40">
+        <v>5.0967000000000002</v>
+      </c>
+      <c r="H40">
+        <v>803.65049999999997</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="6"/>
+        <v>0.78481494140624997</v>
+      </c>
+      <c r="J40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8192</v>
       </c>
@@ -4715,8 +5141,39 @@
         <f t="shared" si="5"/>
         <v>6.2435937499999996</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>8192</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41">
+        <v>11.2912</v>
+      </c>
+      <c r="H41">
+        <v>725.51909999999998</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="6"/>
+        <v>0.70851474609374998</v>
+      </c>
+      <c r="J41" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>16384</v>
       </c>
@@ -4727,8 +5184,39 @@
         <f t="shared" si="5"/>
         <v>6.4848730468750002</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>16384</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <v>31.882200000000001</v>
+      </c>
+      <c r="H42">
+        <v>513.89200000000005</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="6"/>
+        <v>0.50184765625000005</v>
+      </c>
+      <c r="J42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>32768</v>
       </c>
@@ -4739,8 +5227,39 @@
         <f t="shared" si="5"/>
         <v>12.978125</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>32768</v>
+      </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43">
+        <v>45.940100000000001</v>
+      </c>
+      <c r="H43">
+        <v>713.27610000000004</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="6"/>
+        <v>0.69655869140625004</v>
+      </c>
+      <c r="J43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>65536</v>
       </c>
@@ -4751,8 +5270,39 @@
         <f t="shared" si="5"/>
         <v>13.953896484375001</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>65536</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44">
+        <v>103.9453</v>
+      </c>
+      <c r="H44">
+        <v>630.4855</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="6"/>
+        <v>0.61570849609375</v>
+      </c>
+      <c r="J44" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>131072</v>
       </c>
@@ -4763,8 +5313,39 @@
         <f t="shared" si="5"/>
         <v>14.0832421875</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>131072</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45">
+        <v>96.397800000000004</v>
+      </c>
+      <c r="H45">
+        <v>1359.6992</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="6"/>
+        <v>1.32783125</v>
+      </c>
+      <c r="J45" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>262144</v>
       </c>
@@ -4775,8 +5356,39 @@
         <f t="shared" si="5"/>
         <v>14.604912109375</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>262144</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46">
+        <v>146.5412</v>
+      </c>
+      <c r="H46">
+        <v>1788.8756000000001</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="6"/>
+        <v>1.7469488281250001</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>524288</v>
       </c>
@@ -4787,8 +5399,39 @@
         <f t="shared" si="5"/>
         <v>15.105224609375</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>524288</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47">
+        <v>143.48910000000001</v>
+      </c>
+      <c r="H47">
+        <v>3653.8530000000001</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="6"/>
+        <v>3.5682158203125001</v>
+      </c>
+      <c r="J47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1048576</v>
       </c>
@@ -4799,8 +5442,39 @@
         <f t="shared" si="5"/>
         <v>15.185839843749999</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>1048576</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48">
+        <v>167.5753</v>
+      </c>
+      <c r="H48">
+        <v>6257.3434999999999</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="6"/>
+        <v>6.11068701171875</v>
+      </c>
+      <c r="J48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2097152</v>
       </c>
@@ -4811,8 +5485,39 @@
         <f t="shared" si="5"/>
         <v>14.19423828125</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>2097152</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49">
+        <v>141.042</v>
+      </c>
+      <c r="H49">
+        <v>14868.9902</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="6"/>
+        <v>14.5204982421875</v>
+      </c>
+      <c r="J49" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4194304</v>
       </c>
@@ -4822,6 +5527,36 @@
       <c r="C50">
         <f t="shared" si="5"/>
         <v>14.237734375</v>
+      </c>
+      <c r="E50">
+        <v>4194304</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50">
+        <v>197.8278</v>
+      </c>
+      <c r="H50">
+        <v>21201.7909</v>
+      </c>
+      <c r="I50">
+        <v>14.01324</v>
+      </c>
+      <c r="J50" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/2017-AC/serialization.xlsx
+++ b/2017-AC/serialization.xlsx
@@ -308,11 +308,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="206259712"/>
-        <c:axId val="674775616"/>
+        <c:axId val="670379520"/>
+        <c:axId val="675299904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206259712"/>
+        <c:axId val="670379520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -321,7 +321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="674775616"/>
+        <c:crossAx val="675299904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -329,7 +329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="674775616"/>
+        <c:axId val="675299904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -350,7 +350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206259712"/>
+        <c:crossAx val="670379520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -521,11 +521,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="668893184"/>
-        <c:axId val="674777344"/>
+        <c:axId val="670790144"/>
+        <c:axId val="675301632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="668893184"/>
+        <c:axId val="670790144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="674777344"/>
+        <c:crossAx val="675301632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -542,7 +542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="674777344"/>
+        <c:axId val="675301632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,7 +563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="668893184"/>
+        <c:crossAx val="670790144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1159,11 +1159,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="674782528"/>
-        <c:axId val="669532160"/>
+        <c:axId val="675306816"/>
+        <c:axId val="671432704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="674782528"/>
+        <c:axId val="675306816"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1195,12 +1195,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="669532160"/>
+        <c:crossAx val="671432704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="669532160"/>
+        <c:axId val="671432704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,7 +1230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="674782528"/>
+        <c:crossAx val="675306816"/>
         <c:crossesAt val="1.0000000000000005E-8"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1705,6 +1705,20 @@
           <c:marker>
             <c:symbol val="triangle"/>
             <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1872,11 +1886,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="669536768"/>
-        <c:axId val="669537344"/>
+        <c:axId val="671437312"/>
+        <c:axId val="671437888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="669536768"/>
+        <c:axId val="671437312"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1908,12 +1922,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="669537344"/>
+        <c:crossAx val="671437888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="669537344"/>
+        <c:axId val="671437888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="669536768"/>
+        <c:crossAx val="671437312"/>
         <c:crossesAt val="1.0000000000000004E-6"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2787,7 +2801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -4638,7 +4652,7 @@
         <v>0.3402</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29:I50" si="6">H29/1024</f>
+        <f t="shared" ref="I29:I49" si="6">H29/1024</f>
         <v>3.322265625E-4</v>
       </c>
       <c r="J29" t="s">

--- a/2017-AC/serialization.xlsx
+++ b/2017-AC/serialization.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\papers\2017-AC\2017-AC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13110" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="cpp-serializers" sheetId="1" r:id="rId1"/>
     <sheet name="osu-daint" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="33">
   <si>
     <t>=</t>
   </si>
@@ -104,11 +109,23 @@
   <si>
     <t>MPI-pp</t>
   </si>
+  <si>
+    <t>cap'n proto</t>
+  </si>
+  <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t>milliseconds</t>
+  </si>
+  <si>
+    <t>hpx_zero_copy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,14 +167,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -169,6 +189,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -218,7 +239,7 @@
                   <c:v>protobuf</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>capnproto</c:v>
+                  <c:v>cap'n proto</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>boost</c:v>
@@ -298,6 +319,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5206-47A8-BBD0-2661E91CED1A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -308,20 +334,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="670379520"/>
-        <c:axId val="675299904"/>
+        <c:axId val="697825280"/>
+        <c:axId val="268110656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="670379520"/>
+        <c:axId val="697825280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="675299904"/>
+        <c:crossAx val="268110656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -329,7 +356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="675299904"/>
+        <c:axId val="268110656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -350,7 +377,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670379520"/>
+        <c:crossAx val="697825280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -368,9 +395,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -382,6 +409,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -431,7 +459,7 @@
                   <c:v>protobuf</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>capnproto</c:v>
+                  <c:v>cap'n proto</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>boost</c:v>
@@ -511,6 +539,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B353-4294-9383-A3EAABE97FF8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -521,20 +554,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="670790144"/>
-        <c:axId val="675301632"/>
+        <c:axId val="229966336"/>
+        <c:axId val="268112384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="670790144"/>
+        <c:axId val="229966336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="675301632"/>
+        <c:crossAx val="268112384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -542,7 +576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="675301632"/>
+        <c:axId val="268112384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,7 +597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670790144"/>
+        <c:crossAx val="229966336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -581,9 +615,1511 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12537450264575439"/>
+          <c:y val="9.5524732616151825E-2"/>
+          <c:w val="0.82215237018920828"/>
+          <c:h val="0.71517752341622653"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-DA26-4B05-B8A7-C743AB644B16}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-DA26-4B05-B8A7-C743AB644B16}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-DA26-4B05-B8A7-C743AB644B16}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-DA26-4B05-B8A7-C743AB644B16}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-DA26-4B05-B8A7-C743AB644B16}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-DA26-4B05-B8A7-C743AB644B16}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-DA26-4B05-B8A7-C743AB644B16}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-DA26-4B05-B8A7-C743AB644B16}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-DA26-4B05-B8A7-C743AB644B16}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-DA26-4B05-B8A7-C743AB644B16}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-DA26-4B05-B8A7-C743AB644B16}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-DA26-4B05-B8A7-C743AB644B16}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-DA26-4B05-B8A7-C743AB644B16}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6BEF59E7-ACFE-46EC-9BFB-22D5A022158A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-DA26-4B05-B8A7-C743AB644B16}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.4477296726505786E-3"/>
+                  <c:y val="7.0272738604050838E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{357FB4EA-05DD-4E69-8221-690CEC29F35F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-DA26-4B05-B8A7-C743AB644B16}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{19E1155A-9E21-4423-BE73-D06412C3FD59}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-DA26-4B05-B8A7-C743AB644B16}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{85B7B14D-BA54-4062-94A5-F28007B60781}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-DA26-4B05-B8A7-C743AB644B16}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2238648363252373E-3"/>
+                  <c:y val="-7.0272738604050852E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3440A737-CB0F-44A3-8978-74BF54F141EE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-DA26-4B05-B8A7-C743AB644B16}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BD5D35A3-359D-49CE-8F14-611244E0CA93}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-DA26-4B05-B8A7-C743AB644B16}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.290322799140259E-2"/>
+                  <c:y val="7.1319961265047943E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D150CF0A-63D5-48EE-AFEA-47F7D474BA81}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-DA26-4B05-B8A7-C743AB644B16}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4789B3F8-7892-465D-852A-89F2B5CF77C4}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-DA26-4B05-B8A7-C743AB644B16}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0575236741213567E-2"/>
+                  <c:y val="8.0298936036186999E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{E4F2E496-0165-464C-978A-522C28DF0A4E}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="accent2"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-DA26-4B05-B8A7-C743AB644B16}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{135B2BA9-FB42-4BFA-B33B-3C79F651B433}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
+                      <a:pPr>
+                        <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx2"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-DA26-4B05-B8A7-C743AB644B16}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C1F676D8-D679-448F-96D7-521F561E3588}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-DA26-4B05-B8A7-C743AB644B16}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-7.7669868983424609E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BF985F87-B2E1-47F0-8176-8585333CBB20}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-DA26-4B05-B8A7-C743AB644B16}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.1169261056516983E-3"/>
+                  <c:y val="7.7135193547944486E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DEB0B8BF-DF08-4AE5-8662-9D33D4F91D88}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-DA26-4B05-B8A7-C743AB644B16}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'cpp-serializers'!$P$2:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>14491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22790</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6843</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24010</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8838</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'cpp-serializers'!$V$2:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>17017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17470</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17433</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9433</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17423</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'cpp-serializers'!$A$2:$A$14</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>thrift-binary</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>thrift-compact</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>protobuf</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>cap'n proto</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>boost</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>msgpack</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>cereal</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>avro</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>hpx</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>hpx zero copy</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>mpi</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>yas</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>flatbuffers</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA26-4B05-B8A7-C743AB644B16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1449283103"/>
+        <c:axId val="1449281855"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1449283103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Time taken to generate archive (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.34730545208796071"/>
+              <c:y val="0.88567659142400845"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1449281855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1449281855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Size of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+                  <a:t> a</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>rchive (bytes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.6021519942683922E-3"/>
+              <c:y val="0.19585474476136386"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1449283103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -806,6 +2342,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF2F-4F69-9B5C-7BC98F897D42}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -982,6 +2523,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF2F-4F69-9B5C-7BC98F897D42}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1150,6 +2696,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BF2F-4F69-9B5C-7BC98F897D42}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1159,11 +2710,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="675306816"/>
-        <c:axId val="671432704"/>
+        <c:axId val="271490368"/>
+        <c:axId val="232366080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="675306816"/>
+        <c:axId val="271490368"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1188,19 +2739,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#\ ??/??" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="671432704"/>
+        <c:crossAx val="232366080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="671432704"/>
+        <c:axId val="232366080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,14 +2773,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="675306816"/>
+        <c:crossAx val="271490368"/>
         <c:crossesAt val="1.0000000000000005E-8"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1284,10 +2833,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1510,6 +3059,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C020-49DE-80A2-431B6A527D0E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1686,6 +3240,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C020-49DE-80A2-431B6A527D0E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1877,6 +3436,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C020-49DE-80A2-431B6A527D0E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1886,11 +3450,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="671437312"/>
-        <c:axId val="671437888"/>
+        <c:axId val="232370688"/>
+        <c:axId val="232371264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="671437312"/>
+        <c:axId val="232370688"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1915,19 +3479,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#\ ??/??" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="671437888"/>
+        <c:crossAx val="232371264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="671437888"/>
+        <c:axId val="232371264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,14 +3513,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="671437312"/>
+        <c:crossAx val="232370688"/>
         <c:crossesAt val="1.0000000000000004E-6"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2015,16 +3577,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2045,16 +3607,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2068,6 +3630,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2186,7 +3778,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2221,7 +3813,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2430,10 +4022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,7 +4033,7 @@
     <col min="1" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2451,8 +4043,14 @@
       <c r="H1" t="s">
         <v>18</v>
       </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2477,8 +4075,38 @@
       <c r="H2">
         <v>15518</v>
       </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>14491</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>17017</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2503,8 +4131,38 @@
       <c r="H3">
         <v>23117</v>
       </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>22790</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>11597</v>
+      </c>
+      <c r="W3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2529,10 +4187,40 @@
       <c r="H4">
         <v>17196</v>
       </c>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>16316</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>12571</v>
+      </c>
+      <c r="W4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2555,8 +4243,38 @@
       <c r="H5">
         <v>31</v>
       </c>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>31</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>17768</v>
+      </c>
+      <c r="W5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2581,8 +4299,38 @@
       <c r="H6">
         <v>8663</v>
       </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>8222</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>17470</v>
+      </c>
+      <c r="W6" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2607,8 +4355,38 @@
       <c r="H7">
         <v>28608</v>
       </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>27203</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>11802</v>
+      </c>
+      <c r="W7" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2633,8 +4411,38 @@
       <c r="H8">
         <v>6694</v>
       </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>6843</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>17416</v>
+      </c>
+      <c r="W8" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2659,8 +4467,38 @@
       <c r="H9">
         <v>24406</v>
       </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>24010</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>12288</v>
+      </c>
+      <c r="W9" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2685,8 +4523,38 @@
       <c r="H10">
         <v>5923</v>
       </c>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>5798</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>17433</v>
+      </c>
+      <c r="W10" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2711,8 +4579,38 @@
       <c r="H11">
         <v>4256</v>
       </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>4164</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>9433</v>
+      </c>
+      <c r="W11" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2737,8 +4635,38 @@
       <c r="H12">
         <v>8709</v>
       </c>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>8838</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>13008</v>
+      </c>
+      <c r="W12" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2763,8 +4691,38 @@
       <c r="H13">
         <v>6002</v>
       </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>6019</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>17423</v>
+      </c>
+      <c r="W13" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2788,6 +4746,36 @@
       </c>
       <c r="H14">
         <v>9630</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>9603</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>17632</v>
+      </c>
+      <c r="W14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +4789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>

--- a/2017-AC/serialization.xlsx
+++ b/2017-AC/serialization.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="35">
   <si>
     <t>=</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>hpx_zero_copy</t>
+  </si>
+  <si>
+    <t>Time (us)</t>
+  </si>
+  <si>
+    <t>Iterations</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1078,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6BEF59E7-ACFE-46EC-9BFB-22D5A022158A}" type="CELLRANGE">
+                    <a:fld id="{47CF54FC-4551-48C0-AC7E-FC787AFF901E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1112,7 +1118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{357FB4EA-05DD-4E69-8221-690CEC29F35F}" type="CELLRANGE">
+                    <a:fld id="{51BD4A90-A4A2-4DE2-B0AF-81186B84EAA5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1147,7 +1153,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19E1155A-9E21-4423-BE73-D06412C3FD59}" type="CELLRANGE">
+                    <a:fld id="{CF5689DB-8970-499C-B14C-F1E74197F874}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1183,7 +1189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85B7B14D-BA54-4062-94A5-F28007B60781}" type="CELLRANGE">
+                    <a:fld id="{785ACD3F-C740-4CFA-9433-8717A4CB68F7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1224,7 +1230,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3440A737-CB0F-44A3-8978-74BF54F141EE}" type="CELLRANGE">
+                    <a:fld id="{7A739ECC-F178-4C33-82E2-2241E9CAE2A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1259,7 +1265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD5D35A3-359D-49CE-8F14-611244E0CA93}" type="CELLRANGE">
+                    <a:fld id="{CA42F08C-2ABB-4AC1-8013-4D6702C55CDC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1300,7 +1306,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D150CF0A-63D5-48EE-AFEA-47F7D474BA81}" type="CELLRANGE">
+                    <a:fld id="{A1D64597-757B-4648-BC13-33742A834383}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1335,7 +1341,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4789B3F8-7892-465D-852A-89F2B5CF77C4}" type="CELLRANGE">
+                    <a:fld id="{9CCFC39D-67F7-49AA-BFC7-55B7CFAE5D75}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1467,7 +1473,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{135B2BA9-FB42-4BFA-B33B-3C79F651B433}" type="CELLRANGE">
+                    <a:fld id="{BB7510A3-457D-4112-A7A2-4A589502B5DE}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr>
                         <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -1531,7 +1537,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C1F676D8-D679-448F-96D7-521F561E3588}" type="CELLRANGE">
+                    <a:fld id="{814AA491-AAAE-42D1-8D65-606336203F55}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1572,7 +1578,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF985F87-B2E1-47F0-8176-8585333CBB20}" type="CELLRANGE">
+                    <a:fld id="{A716C18B-38A1-48FC-91D3-F2409749E808}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1612,7 +1618,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DEB0B8BF-DF08-4AE5-8662-9D33D4F91D88}" type="CELLRANGE">
+                    <a:fld id="{F1C58D2B-0B6A-4872-9E85-0D6FBDF2C5DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1698,55 +1704,55 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'cpp-serializers'!$P$2:$P$14</c:f>
+              <c:f>'cpp-serializers'!$Q$2:$Q$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>14491</c:v>
+                  <c:v>14.491</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22790</c:v>
+                  <c:v>22.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16316</c:v>
+                  <c:v>16.315999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8222</c:v>
+                  <c:v>8.2219999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27203</c:v>
+                  <c:v>27.202999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6843</c:v>
+                  <c:v>6.843</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24010</c:v>
+                  <c:v>24.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5798</c:v>
+                  <c:v>5.798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4164</c:v>
+                  <c:v>4.1639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8838</c:v>
+                  <c:v>8.8379999999999992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6019</c:v>
+                  <c:v>6.0190000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9603</c:v>
+                  <c:v>9.6029999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'cpp-serializers'!$V$2:$V$14</c:f>
+              <c:f>'cpp-serializers'!$W$2:$W$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1899,7 +1905,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Time taken to generate archive (ms)</a:t>
+                  <a:t>Time taken to generate archive (µs)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3637,16 +3643,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4022,10 +4028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="Q2" sqref="Q2:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4033,7 +4039,7 @@
     <col min="1" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4043,14 +4049,23 @@
       <c r="H1" t="s">
         <v>18</v>
       </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1">
+        <v>1000000</v>
+      </c>
       <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4087,26 +4102,30 @@
       <c r="P2">
         <v>14491</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2">
+        <f>1000*P2/K$1</f>
+        <v>14.491</v>
+      </c>
+      <c r="R2" t="s">
         <v>31</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>1</v>
       </c>
-      <c r="U2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2">
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>17017</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4143,26 +4162,30 @@
       <c r="P3">
         <v>22790</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q14" si="0">1000*P3/K$1</f>
+        <v>22.79</v>
+      </c>
+      <c r="R3" t="s">
         <v>31</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>4</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>1</v>
       </c>
-      <c r="U3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V3">
+      <c r="V3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>11597</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4199,26 +4222,30 @@
       <c r="P4">
         <v>16316</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>16.315999999999999</v>
+      </c>
+      <c r="R4" t="s">
         <v>31</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>5</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>1</v>
       </c>
-      <c r="U4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V4">
+      <c r="V4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>12571</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -4255,26 +4282,30 @@
       <c r="P5">
         <v>31</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>3.1E-2</v>
+      </c>
+      <c r="R5" t="s">
         <v>31</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>6</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>1</v>
       </c>
-      <c r="U5" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="V5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>17768</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4311,26 +4342,30 @@
       <c r="P6">
         <v>8222</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>8.2219999999999995</v>
+      </c>
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>7</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>1</v>
       </c>
-      <c r="U6" t="s">
-        <v>0</v>
-      </c>
-      <c r="V6">
+      <c r="V6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>17470</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4367,26 +4402,30 @@
       <c r="P7">
         <v>27203</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>27.202999999999999</v>
+      </c>
+      <c r="R7" t="s">
         <v>31</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>8</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>1</v>
       </c>
-      <c r="U7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V7">
+      <c r="V7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>11802</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4423,26 +4462,30 @@
       <c r="P8">
         <v>6843</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>6.843</v>
+      </c>
+      <c r="R8" t="s">
         <v>31</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>9</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>1</v>
       </c>
-      <c r="U8" t="s">
-        <v>0</v>
-      </c>
-      <c r="V8">
+      <c r="V8" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>17416</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4479,26 +4522,30 @@
       <c r="P9">
         <v>24010</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>24.01</v>
+      </c>
+      <c r="R9" t="s">
         <v>31</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>10</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>1</v>
       </c>
-      <c r="U9" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9">
+      <c r="V9" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <v>12288</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4535,26 +4582,30 @@
       <c r="P10">
         <v>5798</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>5.798</v>
+      </c>
+      <c r="R10" t="s">
         <v>31</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>11</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>1</v>
       </c>
-      <c r="U10" t="s">
-        <v>0</v>
-      </c>
-      <c r="V10">
+      <c r="V10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10">
         <v>17433</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4591,26 +4642,30 @@
       <c r="P11">
         <v>4164</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>4.1639999999999997</v>
+      </c>
+      <c r="R11" t="s">
         <v>31</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>32</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>1</v>
       </c>
-      <c r="U11" t="s">
-        <v>0</v>
-      </c>
-      <c r="V11">
+      <c r="V11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W11">
         <v>9433</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4647,26 +4702,30 @@
       <c r="P12">
         <v>8838</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>8.8379999999999992</v>
+      </c>
+      <c r="R12" t="s">
         <v>31</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>12</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>1</v>
       </c>
-      <c r="U12" t="s">
-        <v>0</v>
-      </c>
-      <c r="V12">
+      <c r="V12" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>13008</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4703,26 +4762,30 @@
       <c r="P13">
         <v>6019</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>6.0190000000000001</v>
+      </c>
+      <c r="R13" t="s">
         <v>31</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>13</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>1</v>
       </c>
-      <c r="U13" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13">
+      <c r="V13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>17423</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4759,22 +4822,26 @@
       <c r="P14">
         <v>9603</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>9.6029999999999998</v>
+      </c>
+      <c r="R14" t="s">
         <v>31</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>14</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>1</v>
       </c>
-      <c r="U14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V14">
+      <c r="V14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <v>17632</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>30</v>
       </c>
     </row>
